--- a/Instances/04_NonStationary_b4_fe25_en_rk50_ll0_l40.xlsx
+++ b/Instances/04_NonStationary_b4_fe25_en_rk50_ll0_l40.xlsx
@@ -2273,7 +2273,7 @@
         <v>0.085536</v>
       </c>
       <c r="E2" t="n">
-        <v>11.668272</v>
+        <v>11.68992</v>
       </c>
       <c r="F2" t="n">
         <v>0.342144</v>
@@ -2302,7 +2302,7 @@
         <v>0.083916</v>
       </c>
       <c r="E3" t="n">
-        <v>2.164672</v>
+        <v>2.171028</v>
       </c>
       <c r="F3" t="n">
         <v>0.335664</v>
@@ -2331,7 +2331,7 @@
         <v>0.08401600000000001</v>
       </c>
       <c r="E4" t="n">
-        <v>0.89241</v>
+        <v>0.92261</v>
       </c>
       <c r="F4" t="n">
         <v>0.336064</v>
@@ -2360,7 +2360,7 @@
         <v>0.08357200000000001</v>
       </c>
       <c r="E5" t="n">
-        <v>1.4535</v>
+        <v>1.43298</v>
       </c>
       <c r="F5" t="n">
         <v>0.334288</v>
@@ -2389,7 +2389,7 @@
         <v>0.081992</v>
       </c>
       <c r="E6" t="n">
-        <v>0.967212</v>
+        <v>0.952776</v>
       </c>
       <c r="F6" t="n">
         <v>0.327968</v>
@@ -2418,7 +2418,7 @@
         <v>0.082176</v>
       </c>
       <c r="E7" t="n">
-        <v>0.272556</v>
+        <v>0.2902439999999999</v>
       </c>
       <c r="F7" t="n">
         <v>0.328704</v>
@@ -2447,7 +2447,7 @@
         <v>0.08182400000000001</v>
       </c>
       <c r="E8" t="n">
-        <v>0.096624</v>
+        <v>0.101376</v>
       </c>
       <c r="F8" t="n">
         <v>0.327296</v>
@@ -2470,13 +2470,13 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>920</v>
+        <v>928</v>
       </c>
       <c r="D9" t="n">
         <v>0.086564</v>
       </c>
       <c r="E9" t="n">
-        <v>0.86095</v>
+        <v>0.8635200000000001</v>
       </c>
       <c r="F9" t="n">
         <v>0.346256</v>
@@ -2499,13 +2499,13 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>666</v>
+        <v>658</v>
       </c>
       <c r="D10" t="n">
         <v>0.0864</v>
       </c>
       <c r="E10" t="n">
-        <v>0.519696</v>
+        <v>0.5153760000000001</v>
       </c>
       <c r="F10" t="n">
         <v>0.3456</v>
@@ -2528,13 +2528,13 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>1974</v>
+        <v>1993</v>
       </c>
       <c r="D11" t="n">
         <v>0.085956</v>
       </c>
       <c r="E11" t="n">
-        <v>0.7539</v>
+        <v>0.75747</v>
       </c>
       <c r="F11" t="n">
         <v>0.343824</v>
@@ -2557,13 +2557,13 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="D12" t="n">
         <v>0.08652000000000001</v>
       </c>
       <c r="E12" t="n">
-        <v>1.2529</v>
+        <v>1.235212</v>
       </c>
       <c r="F12" t="n">
         <v>0.3460800000000001</v>
@@ -2586,13 +2586,13 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>3742</v>
+        <v>3736</v>
       </c>
       <c r="D13" t="n">
         <v>0.081928</v>
       </c>
       <c r="E13" t="n">
-        <v>12.54791999999999</v>
+        <v>12.57119999999999</v>
       </c>
       <c r="F13" t="n">
         <v>0.327712</v>
@@ -2615,13 +2615,13 @@
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>1367</v>
+        <v>1374</v>
       </c>
       <c r="D14" t="n">
         <v>0.08210000000000001</v>
       </c>
       <c r="E14" t="n">
-        <v>4.829984000000001</v>
+        <v>4.844166000000001</v>
       </c>
       <c r="F14" t="n">
         <v>0.3284</v>
@@ -2644,13 +2644,13 @@
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="D15" t="n">
         <v>0.08099600000000001</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8711340000000001</v>
+        <v>0.900614</v>
       </c>
       <c r="F15" t="n">
         <v>0.323984</v>
@@ -2673,13 +2673,13 @@
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="D16" t="n">
         <v>0.080152</v>
       </c>
       <c r="E16" t="n">
-        <v>0.8942</v>
+        <v>0.881576</v>
       </c>
       <c r="F16" t="n">
         <v>0.320608</v>
@@ -2702,13 +2702,13 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>690</v>
+        <v>682</v>
       </c>
       <c r="D17" t="n">
         <v>0.080388</v>
       </c>
       <c r="E17" t="n">
-        <v>1.41102</v>
+        <v>1.38996</v>
       </c>
       <c r="F17" t="n">
         <v>0.321552</v>
@@ -2731,13 +2731,13 @@
         <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="D18" t="n">
         <v>0.080568</v>
       </c>
       <c r="E18" t="n">
-        <v>0.42714</v>
+        <v>0.45486</v>
       </c>
       <c r="F18" t="n">
         <v>0.322272</v>
@@ -2760,13 +2760,13 @@
         <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="D19" t="n">
         <v>0.08024000000000001</v>
       </c>
       <c r="E19" t="n">
-        <v>0.133712</v>
+        <v>0.140288</v>
       </c>
       <c r="F19" t="n">
         <v>0.32096</v>
@@ -2795,7 +2795,7 @@
         <v>0.01052</v>
       </c>
       <c r="E20" t="n">
-        <v>62.90960000000001</v>
+        <v>63.10422000000001</v>
       </c>
       <c r="F20" t="n">
         <v>0.04208000000000001</v>
@@ -2824,7 +2824,7 @@
         <v>0.011168</v>
       </c>
       <c r="E21" t="n">
-        <v>66.78464000000001</v>
+        <v>66.991248</v>
       </c>
       <c r="F21" t="n">
         <v>0.044672</v>
@@ -2853,7 +2853,7 @@
         <v>0.013824</v>
       </c>
       <c r="E22" t="n">
-        <v>82.66752000000001</v>
+        <v>82.923264</v>
       </c>
       <c r="F22" t="n">
         <v>0.055296</v>
@@ -2882,7 +2882,7 @@
         <v>0.042536</v>
       </c>
       <c r="E23" t="n">
-        <v>254.36528</v>
+        <v>255.152196</v>
       </c>
       <c r="F23" t="n">
         <v>0.170144</v>
@@ -2992,34 +2992,34 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="D2" t="n">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="G2" t="n">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="H2" t="n">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="I2" t="n">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="J2" t="n">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="K2" t="n">
-        <v>893</v>
+        <v>895</v>
       </c>
       <c r="L2" t="n">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -3063,34 +3063,34 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>593</v>
+        <v>599</v>
       </c>
       <c r="D3" t="n">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="G3" t="n">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="H3" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="I3" t="n">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="J3" t="n">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="K3" t="n">
-        <v>893</v>
+        <v>908</v>
       </c>
       <c r="L3" t="n">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -3134,34 +3134,34 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>594</v>
+        <v>599</v>
       </c>
       <c r="D4" t="n">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="G4" t="n">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H4" t="n">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="I4" t="n">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="J4" t="n">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="K4" t="n">
-        <v>903</v>
+        <v>906</v>
       </c>
       <c r="L4" t="n">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -3205,34 +3205,34 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="D5" t="n">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="G5" t="n">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="H5" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="I5" t="n">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="J5" t="n">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="K5" t="n">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="L5" t="n">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -3363,34 +3363,34 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>75.625</v>
+        <v>75</v>
       </c>
       <c r="D2" t="n">
-        <v>18.125</v>
+        <v>19.875</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>38</v>
+        <v>37.25</v>
       </c>
       <c r="G2" t="n">
-        <v>11.125</v>
+        <v>11.625</v>
       </c>
       <c r="H2" t="n">
-        <v>2.625</v>
+        <v>4.625</v>
       </c>
       <c r="I2" t="n">
-        <v>51.875</v>
+        <v>52.625</v>
       </c>
       <c r="J2" t="n">
-        <v>37.875</v>
+        <v>37.125</v>
       </c>
       <c r="K2" t="n">
-        <v>111.625</v>
+        <v>111.875</v>
       </c>
       <c r="L2" t="n">
-        <v>25.375</v>
+        <v>25.875</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -3434,34 +3434,34 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>111.1875</v>
+        <v>112.3125</v>
       </c>
       <c r="D3" t="n">
-        <v>27.375</v>
+        <v>27.9375</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>56.8125</v>
+        <v>55.875</v>
       </c>
       <c r="G3" t="n">
-        <v>15.1875</v>
+        <v>16.6875</v>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>5.25</v>
       </c>
       <c r="I3" t="n">
-        <v>78.375</v>
+        <v>78.5625</v>
       </c>
       <c r="J3" t="n">
-        <v>56.25</v>
+        <v>56.0625</v>
       </c>
       <c r="K3" t="n">
-        <v>167.4375</v>
+        <v>170.25</v>
       </c>
       <c r="L3" t="n">
-        <v>40.6875</v>
+        <v>38.8125</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -3505,34 +3505,34 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>129.9375</v>
+        <v>131.03125</v>
       </c>
       <c r="D4" t="n">
-        <v>32.59375</v>
+        <v>33.46875</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>66.9375</v>
+        <v>64.96875</v>
       </c>
       <c r="G4" t="n">
-        <v>19.90625</v>
+        <v>19.25</v>
       </c>
       <c r="H4" t="n">
-        <v>9.40625</v>
+        <v>6.34375</v>
       </c>
       <c r="I4" t="n">
-        <v>92.96875</v>
+        <v>92.09375</v>
       </c>
       <c r="J4" t="n">
-        <v>64.96875</v>
+        <v>66.0625</v>
       </c>
       <c r="K4" t="n">
-        <v>197.53125</v>
+        <v>198.1875</v>
       </c>
       <c r="L4" t="n">
-        <v>46.8125</v>
+        <v>46.375</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -3576,34 +3576,34 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>138.75</v>
+        <v>138.984375</v>
       </c>
       <c r="D5" t="n">
-        <v>35.390625</v>
+        <v>35.15625</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>68.671875</v>
+        <v>69.140625</v>
       </c>
       <c r="G5" t="n">
-        <v>18.28125</v>
+        <v>21.328125</v>
       </c>
       <c r="H5" t="n">
-        <v>6.09375</v>
+        <v>7.96875</v>
       </c>
       <c r="I5" t="n">
-        <v>97.734375</v>
+        <v>98.203125</v>
       </c>
       <c r="J5" t="n">
-        <v>71.015625</v>
+        <v>69.140625</v>
       </c>
       <c r="K5" t="n">
-        <v>211.171875</v>
+        <v>210.46875</v>
       </c>
       <c r="L5" t="n">
-        <v>50.625</v>
+        <v>49.6875</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -3668,7 +3668,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>50365</v>
+        <v>50277.5</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3676,7 +3676,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>523250</v>
+        <v>524868.75</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3684,7 +3684,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>523250</v>
+        <v>524868.75</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3692,7 +3692,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>4933500</v>
+        <v>4948762.5</v>
       </c>
     </row>
   </sheetData>

--- a/Instances/04_NonStationary_b4_fe25_en_rk50_ll0_l40.xlsx
+++ b/Instances/04_NonStationary_b4_fe25_en_rk50_ll0_l40.xlsx
@@ -522,7 +522,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2273,7 +2273,7 @@
         <v>0.085536</v>
       </c>
       <c r="E2" t="n">
-        <v>11.68992</v>
+        <v>11.6928064</v>
       </c>
       <c r="F2" t="n">
         <v>0.342144</v>
@@ -2302,7 +2302,7 @@
         <v>0.083916</v>
       </c>
       <c r="E3" t="n">
-        <v>2.171028</v>
+        <v>2.1893696</v>
       </c>
       <c r="F3" t="n">
         <v>0.335664</v>
@@ -2331,7 +2331,7 @@
         <v>0.08401600000000001</v>
       </c>
       <c r="E4" t="n">
-        <v>0.92261</v>
+        <v>0.8987520000000001</v>
       </c>
       <c r="F4" t="n">
         <v>0.336064</v>
@@ -2360,7 +2360,7 @@
         <v>0.08357200000000001</v>
       </c>
       <c r="E5" t="n">
-        <v>1.43298</v>
+        <v>1.447344</v>
       </c>
       <c r="F5" t="n">
         <v>0.334288</v>
@@ -2389,7 +2389,7 @@
         <v>0.081992</v>
       </c>
       <c r="E6" t="n">
-        <v>0.952776</v>
+        <v>0.9553424</v>
       </c>
       <c r="F6" t="n">
         <v>0.327968</v>
@@ -2418,7 +2418,7 @@
         <v>0.082176</v>
       </c>
       <c r="E7" t="n">
-        <v>0.2902439999999999</v>
+        <v>0.292656</v>
       </c>
       <c r="F7" t="n">
         <v>0.328704</v>
@@ -2447,7 +2447,7 @@
         <v>0.08182400000000001</v>
       </c>
       <c r="E8" t="n">
-        <v>0.101376</v>
+        <v>0.09440640000000002</v>
       </c>
       <c r="F8" t="n">
         <v>0.327296</v>
@@ -2476,7 +2476,7 @@
         <v>0.086564</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8635200000000001</v>
+        <v>0.8622864</v>
       </c>
       <c r="F9" t="n">
         <v>0.346256</v>
@@ -2505,7 +2505,7 @@
         <v>0.0864</v>
       </c>
       <c r="E10" t="n">
-        <v>0.5153760000000001</v>
+        <v>0.5180544</v>
       </c>
       <c r="F10" t="n">
         <v>0.3456</v>
@@ -2534,7 +2534,7 @@
         <v>0.085956</v>
       </c>
       <c r="E11" t="n">
-        <v>0.75747</v>
+        <v>0.757008</v>
       </c>
       <c r="F11" t="n">
         <v>0.343824</v>
@@ -2557,13 +2557,13 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>457</v>
+        <v>465</v>
       </c>
       <c r="D12" t="n">
         <v>0.08652000000000001</v>
       </c>
       <c r="E12" t="n">
-        <v>1.235212</v>
+        <v>1.2475936</v>
       </c>
       <c r="F12" t="n">
         <v>0.3460800000000001</v>
@@ -2586,13 +2586,13 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>3736</v>
+        <v>3745</v>
       </c>
       <c r="D13" t="n">
         <v>0.081928</v>
       </c>
       <c r="E13" t="n">
-        <v>12.57119999999999</v>
+        <v>12.57430399999999</v>
       </c>
       <c r="F13" t="n">
         <v>0.327712</v>
@@ -2615,13 +2615,13 @@
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>1374</v>
+        <v>1394</v>
       </c>
       <c r="D14" t="n">
         <v>0.08210000000000001</v>
       </c>
       <c r="E14" t="n">
-        <v>4.844166000000001</v>
+        <v>4.885091200000001</v>
       </c>
       <c r="F14" t="n">
         <v>0.3284</v>
@@ -2644,13 +2644,13 @@
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="D15" t="n">
         <v>0.08099600000000001</v>
       </c>
       <c r="E15" t="n">
-        <v>0.900614</v>
+        <v>0.8773248000000001</v>
       </c>
       <c r="F15" t="n">
         <v>0.323984</v>
@@ -2673,13 +2673,13 @@
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D16" t="n">
         <v>0.080152</v>
       </c>
       <c r="E16" t="n">
-        <v>0.881576</v>
+        <v>0.8904128</v>
       </c>
       <c r="F16" t="n">
         <v>0.320608</v>
@@ -2702,13 +2702,13 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="D17" t="n">
         <v>0.080388</v>
       </c>
       <c r="E17" t="n">
-        <v>1.38996</v>
+        <v>1.393704</v>
       </c>
       <c r="F17" t="n">
         <v>0.321552</v>
@@ -2731,13 +2731,13 @@
         <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D18" t="n">
         <v>0.080568</v>
       </c>
       <c r="E18" t="n">
-        <v>0.45486</v>
+        <v>0.45864</v>
       </c>
       <c r="F18" t="n">
         <v>0.322272</v>
@@ -2760,13 +2760,13 @@
         <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="D19" t="n">
         <v>0.08024000000000001</v>
       </c>
       <c r="E19" t="n">
-        <v>0.140288</v>
+        <v>0.1306432</v>
       </c>
       <c r="F19" t="n">
         <v>0.32096</v>
@@ -2795,7 +2795,7 @@
         <v>0.01052</v>
       </c>
       <c r="E20" t="n">
-        <v>63.10422000000001</v>
+        <v>63.16628800000002</v>
       </c>
       <c r="F20" t="n">
         <v>0.04208000000000001</v>
@@ -2824,7 +2824,7 @@
         <v>0.011168</v>
       </c>
       <c r="E21" t="n">
-        <v>66.991248</v>
+        <v>67.05713920000001</v>
       </c>
       <c r="F21" t="n">
         <v>0.044672</v>
@@ -2853,7 +2853,7 @@
         <v>0.013824</v>
       </c>
       <c r="E22" t="n">
-        <v>82.923264</v>
+        <v>83.00482560000002</v>
       </c>
       <c r="F22" t="n">
         <v>0.055296</v>
@@ -2882,7 +2882,7 @@
         <v>0.042536</v>
       </c>
       <c r="E23" t="n">
-        <v>255.152196</v>
+        <v>255.4031584000001</v>
       </c>
       <c r="F23" t="n">
         <v>0.170144</v>
@@ -2908,7 +2908,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W5"/>
+  <dimension ref="A1:W6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2992,34 +2992,34 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="D2" t="n">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="G2" t="n">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H2" t="n">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="I2" t="n">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="J2" t="n">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="K2" t="n">
-        <v>895</v>
+        <v>906</v>
       </c>
       <c r="L2" t="n">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -3063,7 +3063,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>599</v>
+        <v>607</v>
       </c>
       <c r="D3" t="n">
         <v>149</v>
@@ -3072,25 +3072,25 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="G3" t="n">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="H3" t="n">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="I3" t="n">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="J3" t="n">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="K3" t="n">
-        <v>908</v>
+        <v>898</v>
       </c>
       <c r="L3" t="n">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -3134,34 +3134,34 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>599</v>
+        <v>610</v>
       </c>
       <c r="D4" t="n">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="G4" t="n">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="H4" t="n">
         <v>29</v>
       </c>
       <c r="I4" t="n">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="J4" t="n">
         <v>302</v>
       </c>
       <c r="K4" t="n">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="L4" t="n">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -3205,66 +3205,137 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>593</v>
+        <v>600</v>
       </c>
       <c r="D5" t="n">
+        <v>143</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>299</v>
+      </c>
+      <c r="G5" t="n">
+        <v>86</v>
+      </c>
+      <c r="H5" t="n">
+        <v>21</v>
+      </c>
+      <c r="I5" t="n">
+        <v>418</v>
+      </c>
+      <c r="J5" t="n">
+        <v>302</v>
+      </c>
+      <c r="K5" t="n">
+        <v>900</v>
+      </c>
+      <c r="L5" t="n">
+        <v>210</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>596</v>
+      </c>
+      <c r="D6" t="n">
         <v>150</v>
       </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>295</v>
-      </c>
-      <c r="G5" t="n">
-        <v>91</v>
-      </c>
-      <c r="H5" t="n">
-        <v>34</v>
-      </c>
-      <c r="I5" t="n">
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>301</v>
+      </c>
+      <c r="G6" t="n">
+        <v>93</v>
+      </c>
+      <c r="H6" t="n">
+        <v>37</v>
+      </c>
+      <c r="I6" t="n">
         <v>419</v>
       </c>
-      <c r="J5" t="n">
-        <v>295</v>
-      </c>
-      <c r="K5" t="n">
-        <v>898</v>
-      </c>
-      <c r="L5" t="n">
-        <v>212</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
+      <c r="J6" t="n">
+        <v>299</v>
+      </c>
+      <c r="K6" t="n">
+        <v>895</v>
+      </c>
+      <c r="L6" t="n">
+        <v>214</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3279,7 +3350,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W5"/>
+  <dimension ref="A1:W6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3363,34 +3434,34 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>75</v>
+        <v>75.125</v>
       </c>
       <c r="D2" t="n">
-        <v>19.875</v>
+        <v>18.5</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>37.25</v>
+        <v>37.75</v>
       </c>
       <c r="G2" t="n">
-        <v>11.625</v>
+        <v>11.375</v>
       </c>
       <c r="H2" t="n">
-        <v>4.625</v>
+        <v>3.5</v>
       </c>
       <c r="I2" t="n">
-        <v>52.625</v>
+        <v>52.25</v>
       </c>
       <c r="J2" t="n">
-        <v>37.125</v>
+        <v>37</v>
       </c>
       <c r="K2" t="n">
-        <v>111.875</v>
+        <v>113.25</v>
       </c>
       <c r="L2" t="n">
-        <v>25.875</v>
+        <v>26.25</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -3434,7 +3505,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>112.3125</v>
+        <v>113.8125</v>
       </c>
       <c r="D3" t="n">
         <v>27.9375</v>
@@ -3443,25 +3514,25 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>55.875</v>
+        <v>54.75</v>
       </c>
       <c r="G3" t="n">
-        <v>16.6875</v>
+        <v>17.625</v>
       </c>
       <c r="H3" t="n">
-        <v>5.25</v>
+        <v>6.375</v>
       </c>
       <c r="I3" t="n">
-        <v>78.5625</v>
+        <v>79.125</v>
       </c>
       <c r="J3" t="n">
-        <v>56.0625</v>
+        <v>56.25</v>
       </c>
       <c r="K3" t="n">
-        <v>170.25</v>
+        <v>168.375</v>
       </c>
       <c r="L3" t="n">
-        <v>38.8125</v>
+        <v>39.5625</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -3505,34 +3576,34 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>131.03125</v>
+        <v>133.4375</v>
       </c>
       <c r="D4" t="n">
-        <v>33.46875</v>
+        <v>33.6875</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>64.96875</v>
+        <v>64.53125</v>
       </c>
       <c r="G4" t="n">
-        <v>19.25</v>
+        <v>19.90625</v>
       </c>
       <c r="H4" t="n">
         <v>6.34375</v>
       </c>
       <c r="I4" t="n">
-        <v>92.09375</v>
+        <v>91.875</v>
       </c>
       <c r="J4" t="n">
         <v>66.0625</v>
       </c>
       <c r="K4" t="n">
-        <v>198.1875</v>
+        <v>198.40625</v>
       </c>
       <c r="L4" t="n">
-        <v>46.375</v>
+        <v>46.59375</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -3576,34 +3647,34 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>138.984375</v>
+        <v>140.625</v>
       </c>
       <c r="D5" t="n">
-        <v>35.15625</v>
+        <v>33.515625</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>69.140625</v>
+        <v>70.078125</v>
       </c>
       <c r="G5" t="n">
-        <v>21.328125</v>
+        <v>20.15625</v>
       </c>
       <c r="H5" t="n">
-        <v>7.96875</v>
+        <v>4.921875</v>
       </c>
       <c r="I5" t="n">
-        <v>98.203125</v>
+        <v>97.96875</v>
       </c>
       <c r="J5" t="n">
-        <v>69.140625</v>
+        <v>70.78125</v>
       </c>
       <c r="K5" t="n">
-        <v>210.46875</v>
+        <v>210.9375</v>
       </c>
       <c r="L5" t="n">
-        <v>49.6875</v>
+        <v>49.21875</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -3636,6 +3707,77 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>144.34375</v>
+      </c>
+      <c r="D6" t="n">
+        <v>36.328125</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>72.8984375</v>
+      </c>
+      <c r="G6" t="n">
+        <v>22.5234375</v>
+      </c>
+      <c r="H6" t="n">
+        <v>8.9609375</v>
+      </c>
+      <c r="I6" t="n">
+        <v>101.4765625</v>
+      </c>
+      <c r="J6" t="n">
+        <v>72.4140625</v>
+      </c>
+      <c r="K6" t="n">
+        <v>216.7578125</v>
+      </c>
+      <c r="L6" t="n">
+        <v>51.828125</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3668,7 +3810,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>50277.5</v>
+        <v>50344</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3676,7 +3818,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>524868.75</v>
+        <v>525385</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3684,7 +3826,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>524868.75</v>
+        <v>525385</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3692,7 +3834,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>4948762.5</v>
+        <v>4953630</v>
       </c>
     </row>
   </sheetData>
